--- a/Excel_read_serialnumber/Excel/WorkbookPy.xlsx
+++ b/Excel_read_serialnumber/Excel/WorkbookPy.xlsx
@@ -3,11 +3,10 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-27420" yWindow="960" windowWidth="23265" windowHeight="12810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sheetnames" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -331,7 +330,7 @@
   </sheetPr>
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -365,6 +364,9 @@
       <c r="A3" s="1" t="n">
         <v>60257</v>
       </c>
+      <c r="B3" t="n">
+        <v>19011200020001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -835,22 +837,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel_read_serialnumber/Excel/WorkbookPy.xlsx
+++ b/Excel_read_serialnumber/Excel/WorkbookPy.xlsx
@@ -364,8 +364,10 @@
       <c r="A3" s="1" t="n">
         <v>60257</v>
       </c>
-      <c r="B3" t="n">
-        <v>19011200020001</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
     </row>
     <row r="4">

--- a/Excel_read_serialnumber/Excel/WorkbookPy.xlsx
+++ b/Excel_read_serialnumber/Excel/WorkbookPy.xlsx
@@ -366,7 +366,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19011200020001</t>
         </is>
       </c>
     </row>

--- a/Excel_read_serialnumber/Excel/WorkbookPy.xlsx
+++ b/Excel_read_serialnumber/Excel/WorkbookPy.xlsx
@@ -364,11 +364,6 @@
       <c r="A3" s="1" t="n">
         <v>60257</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>19011200020001</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
